--- a/Assignment_2/result.xlsx
+++ b/Assignment_2/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS106.M11.KHCL\Assignment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{438DD9C9-FED6-43E3-BFA3-5CC06BD91D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8D62C-BB68-473C-93D2-CBDB77A6DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>00Uncorrelated_n00050</t>
   </si>
@@ -241,12 +252,15 @@
   </si>
   <si>
     <t>total optimal test case</t>
+  </si>
+  <si>
+    <t>Avergare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,9 +844,6 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,6 +851,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +901,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -899,13 +913,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1052,6 +1059,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B897-4230-A988-4AB5399A4E1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2078,11 +2090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2144,7 +2156,7 @@
       <c r="D2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>COUNTIF(D2:D6,"FALSE")</f>
         <v>0</v>
       </c>
@@ -2160,7 +2172,7 @@
       <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <f>COUNTIF(J2:J6,"FALSE")</f>
         <v>3</v>
       </c>
@@ -2178,7 +2190,7 @@
       <c r="D3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2191,7 +2203,7 @@
       <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2206,7 +2218,7 @@
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2219,7 +2231,7 @@
       <c r="J4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2234,7 +2246,7 @@
       <c r="D5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2247,7 +2259,7 @@
       <c r="J5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2262,7 +2274,7 @@
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
@@ -2275,7 +2287,7 @@
       <c r="J6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2290,7 +2302,7 @@
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>COUNTIF(D7:D11,"FALSE")</f>
         <v>0</v>
       </c>
@@ -2306,7 +2318,7 @@
       <c r="J7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <f>COUNTIF(J7:J11,"FALSE")</f>
         <v>3</v>
       </c>
@@ -2324,7 +2336,7 @@
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
@@ -2337,7 +2349,7 @@
       <c r="J8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2352,7 +2364,7 @@
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2377,7 @@
       <c r="J9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2380,7 +2392,7 @@
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2393,7 +2405,7 @@
       <c r="J10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2408,7 +2420,7 @@
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
@@ -2421,7 +2433,7 @@
       <c r="J11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2436,7 +2448,7 @@
       <c r="D12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f>COUNTIF(D12:D16,"FALSE")</f>
         <v>3</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="J12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <f>COUNTIF(J12:J16,"FALSE")</f>
         <v>4</v>
       </c>
@@ -2470,7 +2482,7 @@
       <c r="D13" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
       <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2483,7 +2495,7 @@
       <c r="J13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2498,7 +2510,7 @@
       <c r="D14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
       <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2511,7 +2523,7 @@
       <c r="J14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2526,7 +2538,7 @@
       <c r="D15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
       <c r="G15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2539,7 +2551,7 @@
       <c r="J15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2554,7 +2566,7 @@
       <c r="D16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2567,7 +2579,7 @@
       <c r="J16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2582,7 +2594,7 @@
       <c r="D17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f>COUNTIF(D17:D21,"FALSE")</f>
         <v>3</v>
       </c>
@@ -2598,7 +2610,7 @@
       <c r="J17" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="11">
         <f>COUNTIF(J17:J21,"FALSE")</f>
         <v>3</v>
       </c>
@@ -2616,7 +2628,7 @@
       <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
@@ -2629,7 +2641,7 @@
       <c r="J18" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2644,7 +2656,7 @@
       <c r="D19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
@@ -2657,7 +2669,7 @@
       <c r="J19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2672,7 +2684,7 @@
       <c r="D20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
       <c r="G20" s="4" t="s">
         <v>53</v>
       </c>
@@ -2685,7 +2697,7 @@
       <c r="J20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2700,7 +2712,7 @@
       <c r="D21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
       <c r="G21" s="4" t="s">
         <v>54</v>
       </c>
@@ -2713,7 +2725,7 @@
       <c r="J21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -2728,7 +2740,7 @@
       <c r="D22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f>COUNTIF(D22:D26,"FALSE")</f>
         <v>2</v>
       </c>
@@ -2744,7 +2756,7 @@
       <c r="J22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="11">
         <f>COUNTIF(J22:J26,"FALSE")</f>
         <v>3</v>
       </c>
@@ -2762,7 +2774,7 @@
       <c r="D23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
       <c r="G23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,7 +2787,7 @@
       <c r="J23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K23" s="8"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -2790,7 +2802,7 @@
       <c r="D24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="9"/>
       <c r="G24" s="1" t="s">
         <v>57</v>
       </c>
@@ -2803,7 +2815,7 @@
       <c r="J24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="8"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2818,7 +2830,7 @@
       <c r="D25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="9"/>
       <c r="G25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2831,7 +2843,7 @@
       <c r="J25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="8"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2846,7 +2858,7 @@
       <c r="D26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="10"/>
       <c r="G26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2859,7 +2871,7 @@
       <c r="J26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="8"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2874,7 +2886,7 @@
       <c r="D27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>COUNTIF(D27:D31,"FALSE")</f>
         <v>0</v>
       </c>
@@ -2890,7 +2902,7 @@
       <c r="J27" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="11">
         <f>COUNTIF(J27:J31,"FALSE")</f>
         <v>1</v>
       </c>
@@ -2908,7 +2920,7 @@
       <c r="D28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="9"/>
       <c r="G28" s="4" t="s">
         <v>61</v>
       </c>
@@ -2921,7 +2933,7 @@
       <c r="J28" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="8"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2936,7 +2948,7 @@
       <c r="D29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="9"/>
       <c r="G29" s="4" t="s">
         <v>62</v>
       </c>
@@ -2949,7 +2961,7 @@
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="8"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2964,7 +2976,7 @@
       <c r="D30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
       <c r="G30" s="4" t="s">
         <v>63</v>
       </c>
@@ -2977,7 +2989,7 @@
       <c r="J30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="8"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2992,7 +3004,7 @@
       <c r="D31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="10"/>
       <c r="G31" s="4" t="s">
         <v>64</v>
       </c>
@@ -3005,7 +3017,7 @@
       <c r="J31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="8"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3020,12 +3032,12 @@
       <c r="D32" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f>COUNTIF(D32:D36,"FALSE")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -3038,9 +3050,9 @@
       <c r="D33" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -3053,7 +3065,7 @@
       <c r="D34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="9"/>
       <c r="G34" s="1" t="s">
         <v>71</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -3074,7 +3086,7 @@
       <c r="D35" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="9"/>
       <c r="G35" s="1" t="s">
         <v>70</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -3096,7 +3108,7 @@
       <c r="D36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="10"/>
       <c r="G36" s="1" t="s">
         <v>72</v>
       </c>
@@ -3105,8 +3117,21 @@
         <v>38</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="6">
+        <f>AVERAGE(E2:E36,K2:K31)</f>
+        <v>2.0769230769230771</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E2:E6"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="K17:K21"/>
@@ -3116,10 +3141,6 @@
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="K22:K26"/>
     <mergeCell ref="K12:K16"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E2:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:D36">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
